--- a/data/pca/factorExposure/factorExposure_2015-11-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0147221704443351</v>
+        <v>0.01260165983404637</v>
       </c>
       <c r="C2">
-        <v>-0.0288896237041879</v>
+        <v>0.03557293591026939</v>
       </c>
       <c r="D2">
-        <v>-0.09624716961307826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1291349467877917</v>
+      </c>
+      <c r="E2">
+        <v>0.06764936841278497</v>
+      </c>
+      <c r="F2">
+        <v>-0.02392564922856873</v>
+      </c>
+      <c r="G2">
+        <v>-0.07895008325020184</v>
+      </c>
+      <c r="H2">
+        <v>-0.01765067937047195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01668733543582797</v>
+        <v>0.009942326515425221</v>
       </c>
       <c r="C3">
-        <v>-0.05761531125518214</v>
+        <v>0.04320941688880565</v>
       </c>
       <c r="D3">
-        <v>-0.08939294791401278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05530181561081897</v>
+      </c>
+      <c r="E3">
+        <v>0.04830710384606676</v>
+      </c>
+      <c r="F3">
+        <v>-0.05952790163642762</v>
+      </c>
+      <c r="G3">
+        <v>-0.1020410569099275</v>
+      </c>
+      <c r="H3">
+        <v>-0.01714796109744279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05207291568137391</v>
+        <v>0.05248272127147463</v>
       </c>
       <c r="C4">
-        <v>-0.0497913060198497</v>
+        <v>0.06868863765584722</v>
       </c>
       <c r="D4">
-        <v>-0.1260789785720293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1479747518169651</v>
+      </c>
+      <c r="E4">
+        <v>0.05386157286396473</v>
+      </c>
+      <c r="F4">
+        <v>-0.02293425443042156</v>
+      </c>
+      <c r="G4">
+        <v>0.04520797640250378</v>
+      </c>
+      <c r="H4">
+        <v>0.01574036969889961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0413859884718064</v>
+        <v>0.03926528398414732</v>
       </c>
       <c r="C6">
-        <v>-0.01595941695914274</v>
+        <v>0.02900219337122803</v>
       </c>
       <c r="D6">
-        <v>-0.1392050999715243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1394661617063455</v>
+      </c>
+      <c r="E6">
+        <v>0.02799972233760666</v>
+      </c>
+      <c r="F6">
+        <v>-0.01448527799523303</v>
+      </c>
+      <c r="G6">
+        <v>-0.005940293303923616</v>
+      </c>
+      <c r="H6">
+        <v>0.01919002596532325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01883985528216454</v>
+        <v>0.0131807254570687</v>
       </c>
       <c r="C7">
-        <v>-0.02216204278718864</v>
+        <v>0.03382459864405919</v>
       </c>
       <c r="D7">
-        <v>-0.102702122195049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09734505264253777</v>
+      </c>
+      <c r="E7">
+        <v>0.02195296438349729</v>
+      </c>
+      <c r="F7">
+        <v>-0.01880024504805019</v>
+      </c>
+      <c r="G7">
+        <v>-0.01721965799954933</v>
+      </c>
+      <c r="H7">
+        <v>-0.04517735189578092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008697563707629773</v>
+        <v>0.005966531193946052</v>
       </c>
       <c r="C8">
-        <v>-0.02747478706978385</v>
+        <v>0.03800581157607516</v>
       </c>
       <c r="D8">
-        <v>-0.06252510501490384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08025986611590503</v>
+      </c>
+      <c r="E8">
+        <v>0.03208540114622976</v>
+      </c>
+      <c r="F8">
+        <v>-0.04325549795924032</v>
+      </c>
+      <c r="G8">
+        <v>-0.018863819298171</v>
+      </c>
+      <c r="H8">
+        <v>-0.01895541458476572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04337989849731033</v>
+        <v>0.04153760150814157</v>
       </c>
       <c r="C9">
-        <v>-0.04714537950962001</v>
+        <v>0.06387853595717286</v>
       </c>
       <c r="D9">
-        <v>-0.110199429767961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1224949160570653</v>
+      </c>
+      <c r="E9">
+        <v>0.04024922661164358</v>
+      </c>
+      <c r="F9">
+        <v>-0.003847863630495334</v>
+      </c>
+      <c r="G9">
+        <v>0.02700147534459688</v>
+      </c>
+      <c r="H9">
+        <v>0.0009864995868095617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1030317465158033</v>
+        <v>0.1443511203913002</v>
       </c>
       <c r="C10">
-        <v>0.1866486044410383</v>
+        <v>-0.188255953584832</v>
       </c>
       <c r="D10">
-        <v>0.00275140111750446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006366538473077991</v>
+      </c>
+      <c r="E10">
+        <v>0.04657710812613912</v>
+      </c>
+      <c r="F10">
+        <v>-0.02944730345670916</v>
+      </c>
+      <c r="G10">
+        <v>0.0286598913034809</v>
+      </c>
+      <c r="H10">
+        <v>-0.02777054000255672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03182377482688586</v>
+        <v>0.02798877032263204</v>
       </c>
       <c r="C11">
-        <v>-0.0380227300176122</v>
+        <v>0.04440486806949254</v>
       </c>
       <c r="D11">
-        <v>-0.05752674892129839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05782960192526046</v>
+      </c>
+      <c r="E11">
+        <v>-0.007081188690794212</v>
+      </c>
+      <c r="F11">
+        <v>-0.0007866845260736604</v>
+      </c>
+      <c r="G11">
+        <v>-0.006320255717612557</v>
+      </c>
+      <c r="H11">
+        <v>-0.01989105236602941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03840598092218622</v>
+        <v>0.03329218398582402</v>
       </c>
       <c r="C12">
-        <v>-0.03868220278288482</v>
+        <v>0.0460783093251353</v>
       </c>
       <c r="D12">
-        <v>-0.06161035039190978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05774836196471976</v>
+      </c>
+      <c r="E12">
+        <v>-0.0002218592392703421</v>
+      </c>
+      <c r="F12">
+        <v>0.008350508278031299</v>
+      </c>
+      <c r="G12">
+        <v>-0.01089650737410394</v>
+      </c>
+      <c r="H12">
+        <v>-0.03424944770538963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01491038253123006</v>
+        <v>0.01653826211947084</v>
       </c>
       <c r="C13">
-        <v>-0.03286617487612817</v>
+        <v>0.04143973596484908</v>
       </c>
       <c r="D13">
-        <v>-0.1309713340578828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1506068066082545</v>
+      </c>
+      <c r="E13">
+        <v>0.03515271795988116</v>
+      </c>
+      <c r="F13">
+        <v>-0.03658486551914446</v>
+      </c>
+      <c r="G13">
+        <v>-0.0213614738587208</v>
+      </c>
+      <c r="H13">
+        <v>-0.03487895045133897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005625459680874585</v>
+        <v>0.006689706667820694</v>
       </c>
       <c r="C14">
-        <v>-0.01697894594032535</v>
+        <v>0.02372804899891423</v>
       </c>
       <c r="D14">
-        <v>-0.08579411557582564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09200217861606948</v>
+      </c>
+      <c r="E14">
+        <v>0.03432370244831715</v>
+      </c>
+      <c r="F14">
+        <v>0.001572708524143224</v>
+      </c>
+      <c r="G14">
+        <v>-0.02261655553298513</v>
+      </c>
+      <c r="H14">
+        <v>-0.02435470949569685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002147542849491849</v>
+        <v>0.001303718573757155</v>
       </c>
       <c r="C15">
-        <v>-0.00172619355433509</v>
+        <v>0.01174448530849885</v>
       </c>
       <c r="D15">
-        <v>-0.002500969963980229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03563704392510347</v>
+      </c>
+      <c r="E15">
+        <v>0.008240506536099035</v>
+      </c>
+      <c r="F15">
+        <v>0.001410535274210739</v>
+      </c>
+      <c r="G15">
+        <v>-0.008809664753541309</v>
+      </c>
+      <c r="H15">
+        <v>0.005899941696383299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03183501695657098</v>
+        <v>0.0287539720540747</v>
       </c>
       <c r="C16">
-        <v>-0.03991437911493523</v>
+        <v>0.04429957322927768</v>
       </c>
       <c r="D16">
-        <v>-0.06778515752051563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06384244515586486</v>
+      </c>
+      <c r="E16">
+        <v>0.005152547013754217</v>
+      </c>
+      <c r="F16">
+        <v>0.008204582551812835</v>
+      </c>
+      <c r="G16">
+        <v>-0.007131767464911025</v>
+      </c>
+      <c r="H16">
+        <v>-0.02085811784334957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008015196889185311</v>
+        <v>0.005571617643210797</v>
       </c>
       <c r="C19">
-        <v>-0.02720392955386024</v>
+        <v>0.02292206641593783</v>
       </c>
       <c r="D19">
-        <v>-0.1555436820270133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1192898876380559</v>
+      </c>
+      <c r="E19">
+        <v>0.05969886603023629</v>
+      </c>
+      <c r="F19">
+        <v>0.005374683421103346</v>
+      </c>
+      <c r="G19">
+        <v>-0.03530207307713955</v>
+      </c>
+      <c r="H19">
+        <v>-0.03059250779610513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01494729319421944</v>
+        <v>0.01513513187050489</v>
       </c>
       <c r="C20">
-        <v>-0.02722364693570625</v>
+        <v>0.0340077761830774</v>
       </c>
       <c r="D20">
-        <v>-0.08529958807016504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1015728926941977</v>
+      </c>
+      <c r="E20">
+        <v>0.05048758327199324</v>
+      </c>
+      <c r="F20">
+        <v>-0.0006775842202593949</v>
+      </c>
+      <c r="G20">
+        <v>-0.006515482527439739</v>
+      </c>
+      <c r="H20">
+        <v>-0.01315181951525267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008036529410925834</v>
+        <v>0.009324109719313368</v>
       </c>
       <c r="C21">
-        <v>-0.02862844255062061</v>
+        <v>0.03888783520960429</v>
       </c>
       <c r="D21">
-        <v>-0.1285152988055484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1399349346014319</v>
+      </c>
+      <c r="E21">
+        <v>0.08062715748831938</v>
+      </c>
+      <c r="F21">
+        <v>-0.003126912575453518</v>
+      </c>
+      <c r="G21">
+        <v>0.006105868350497767</v>
+      </c>
+      <c r="H21">
+        <v>-0.06798888292896997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006206292499361889</v>
+        <v>0.00558759070977161</v>
       </c>
       <c r="C22">
-        <v>-0.02843132284428546</v>
+        <v>0.04188441637444677</v>
       </c>
       <c r="D22">
-        <v>-0.09983685228399214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.155968757067784</v>
+      </c>
+      <c r="E22">
+        <v>0.02922709485794792</v>
+      </c>
+      <c r="F22">
+        <v>-0.08748286664481238</v>
+      </c>
+      <c r="G22">
+        <v>-0.06191451430760166</v>
+      </c>
+      <c r="H22">
+        <v>0.09214883343795008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006322626226727717</v>
+        <v>0.005697068827642585</v>
       </c>
       <c r="C23">
-        <v>-0.02839415745860158</v>
+        <v>0.04234705811272574</v>
       </c>
       <c r="D23">
-        <v>-0.09912325064520797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1553899223859062</v>
+      </c>
+      <c r="E23">
+        <v>0.02954838790552998</v>
+      </c>
+      <c r="F23">
+        <v>-0.08745517224512137</v>
+      </c>
+      <c r="G23">
+        <v>-0.06099562144236882</v>
+      </c>
+      <c r="H23">
+        <v>0.09201392849904118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03574379719359556</v>
+        <v>0.03064933866239036</v>
       </c>
       <c r="C24">
-        <v>-0.0482358132093809</v>
+        <v>0.05608713725112997</v>
       </c>
       <c r="D24">
-        <v>-0.06677598067826711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06702720963816695</v>
+      </c>
+      <c r="E24">
+        <v>0.01099961301778728</v>
+      </c>
+      <c r="F24">
+        <v>0.004297653492051173</v>
+      </c>
+      <c r="G24">
+        <v>-0.001476367686853051</v>
+      </c>
+      <c r="H24">
+        <v>-0.03261052980916319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03870255164601004</v>
+        <v>0.03446493197716739</v>
       </c>
       <c r="C25">
-        <v>-0.04778970360164314</v>
+        <v>0.05367886737347689</v>
       </c>
       <c r="D25">
-        <v>-0.06570919322653061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06284575639714067</v>
+      </c>
+      <c r="E25">
+        <v>0.01165986283658766</v>
+      </c>
+      <c r="F25">
+        <v>-0.0007374007753233587</v>
+      </c>
+      <c r="G25">
+        <v>-0.003518426712484101</v>
+      </c>
+      <c r="H25">
+        <v>-0.03457809638324209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01783684372993918</v>
+        <v>0.01776377277272565</v>
       </c>
       <c r="C26">
-        <v>-0.007365648268282927</v>
+        <v>0.01743777060334789</v>
       </c>
       <c r="D26">
-        <v>-0.05634197412652765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06534835030351045</v>
+      </c>
+      <c r="E26">
+        <v>0.02334794104210455</v>
+      </c>
+      <c r="F26">
+        <v>-0.00593180987580488</v>
+      </c>
+      <c r="G26">
+        <v>-0.01059250664718748</v>
+      </c>
+      <c r="H26">
+        <v>-0.01233301926833645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1523110090879223</v>
+        <v>0.2046380859540572</v>
       </c>
       <c r="C28">
-        <v>0.2616466222632779</v>
+        <v>-0.2510543445828617</v>
       </c>
       <c r="D28">
-        <v>0.0335231357671596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01269459958469914</v>
+      </c>
+      <c r="E28">
+        <v>0.0771369228389263</v>
+      </c>
+      <c r="F28">
+        <v>-0.009046533328374061</v>
+      </c>
+      <c r="G28">
+        <v>0.05428082189730082</v>
+      </c>
+      <c r="H28">
+        <v>-0.03677247924675135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003720898223687456</v>
+        <v>0.004423427531168277</v>
       </c>
       <c r="C29">
-        <v>-0.01685004357035366</v>
+        <v>0.02255712001197531</v>
       </c>
       <c r="D29">
-        <v>-0.0705823100984662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08938505471717804</v>
+      </c>
+      <c r="E29">
+        <v>0.03089111734755889</v>
+      </c>
+      <c r="F29">
+        <v>-0.01248909548415287</v>
+      </c>
+      <c r="G29">
+        <v>-0.004629782239995999</v>
+      </c>
+      <c r="H29">
+        <v>-0.03083150891909408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03633928821038323</v>
+        <v>0.04110531209550747</v>
       </c>
       <c r="C30">
-        <v>-0.03276484170256331</v>
+        <v>0.0589742385646595</v>
       </c>
       <c r="D30">
-        <v>-0.1637200481204362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1784832470492691</v>
+      </c>
+      <c r="E30">
+        <v>0.02020516605727006</v>
+      </c>
+      <c r="F30">
+        <v>-0.01533833813506861</v>
+      </c>
+      <c r="G30">
+        <v>-0.01424764620112528</v>
+      </c>
+      <c r="H30">
+        <v>0.05733059992154645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06318371469925835</v>
+        <v>0.05236907286005035</v>
       </c>
       <c r="C31">
-        <v>-0.0557557982858253</v>
+        <v>0.07499254117195095</v>
       </c>
       <c r="D31">
-        <v>-0.06874816505434828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05426825819889465</v>
+      </c>
+      <c r="E31">
+        <v>0.02962152398352521</v>
+      </c>
+      <c r="F31">
+        <v>-0.02985465018658837</v>
+      </c>
+      <c r="G31">
+        <v>0.00987105382448648</v>
+      </c>
+      <c r="H31">
+        <v>-0.03361051012509726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003668311808481644</v>
+        <v>0.01306075918203775</v>
       </c>
       <c r="C32">
-        <v>-0.01727567116973589</v>
+        <v>0.01637889842535492</v>
       </c>
       <c r="D32">
-        <v>-0.06353834100695799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1072527755215597</v>
+      </c>
+      <c r="E32">
+        <v>0.09226692556215015</v>
+      </c>
+      <c r="F32">
+        <v>-0.01841194341716088</v>
+      </c>
+      <c r="G32">
+        <v>0.005417817989946528</v>
+      </c>
+      <c r="H32">
+        <v>-0.05624053304079069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02318264684930511</v>
+        <v>0.02375052237657059</v>
       </c>
       <c r="C33">
-        <v>-0.02876747953222398</v>
+        <v>0.04216181743461871</v>
       </c>
       <c r="D33">
-        <v>-0.1327606552085691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1342474213491893</v>
+      </c>
+      <c r="E33">
+        <v>0.04184652031791392</v>
+      </c>
+      <c r="F33">
+        <v>-0.01505403765228276</v>
+      </c>
+      <c r="G33">
+        <v>-0.01628630615945465</v>
+      </c>
+      <c r="H33">
+        <v>-0.01351909513198302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03250808055754668</v>
+        <v>0.02645664624770322</v>
       </c>
       <c r="C34">
-        <v>-0.06118603852346836</v>
+        <v>0.06143759956631262</v>
       </c>
       <c r="D34">
-        <v>-0.0691351415004496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05539167265946265</v>
+      </c>
+      <c r="E34">
+        <v>-0.005940722854290541</v>
+      </c>
+      <c r="F34">
+        <v>0.01084283289338544</v>
+      </c>
+      <c r="G34">
+        <v>-0.01360213671279859</v>
+      </c>
+      <c r="H34">
+        <v>-0.04293029648246934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008992938093933201</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001005114530934241</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00582238868082655</v>
+      </c>
+      <c r="E35">
+        <v>0.001472017010210425</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006399284321265342</v>
+      </c>
+      <c r="G35">
+        <v>-0.001120100474544042</v>
+      </c>
+      <c r="H35">
+        <v>0.0003602347658886609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01999203979742998</v>
+        <v>0.01915601546508323</v>
       </c>
       <c r="C36">
-        <v>-0.00202783828720687</v>
+        <v>0.01395777473900978</v>
       </c>
       <c r="D36">
-        <v>-0.073166026935832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07795469276645985</v>
+      </c>
+      <c r="E36">
+        <v>0.02906181730750527</v>
+      </c>
+      <c r="F36">
+        <v>-0.004302885108941125</v>
+      </c>
+      <c r="G36">
+        <v>0.003786349121960691</v>
+      </c>
+      <c r="H36">
+        <v>-0.0163578915879934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01932509747832326</v>
+        <v>0.0200350003049269</v>
       </c>
       <c r="C38">
-        <v>-0.01526893665899515</v>
+        <v>0.01960465414371255</v>
       </c>
       <c r="D38">
-        <v>-0.05667838305440682</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06391850137821183</v>
+      </c>
+      <c r="E38">
+        <v>0.03417668256398108</v>
+      </c>
+      <c r="F38">
+        <v>0.006200854969727232</v>
+      </c>
+      <c r="G38">
+        <v>-0.04072869929190194</v>
+      </c>
+      <c r="H38">
+        <v>-0.01629309695318619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03830770030422973</v>
+        <v>0.0347816743846416</v>
       </c>
       <c r="C39">
-        <v>-0.04791533647110748</v>
+        <v>0.06689712147133083</v>
       </c>
       <c r="D39">
-        <v>-0.08811277681983669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1036615709134951</v>
+      </c>
+      <c r="E39">
+        <v>0.004032602828181653</v>
+      </c>
+      <c r="F39">
+        <v>0.02701739442260016</v>
+      </c>
+      <c r="G39">
+        <v>-0.009991248948920979</v>
+      </c>
+      <c r="H39">
+        <v>-0.02282391817847161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01761251928011878</v>
+        <v>0.01212846454046254</v>
       </c>
       <c r="C40">
-        <v>-0.04105659588474393</v>
+        <v>0.04028033448844918</v>
       </c>
       <c r="D40">
-        <v>-0.0719270248678591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08283990794579955</v>
+      </c>
+      <c r="E40">
+        <v>0.05866197562196488</v>
+      </c>
+      <c r="F40">
+        <v>-0.07510275359164145</v>
+      </c>
+      <c r="G40">
+        <v>-0.09033366962196522</v>
+      </c>
+      <c r="H40">
+        <v>-0.0834877951773131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02503743504752334</v>
+        <v>0.02348911571162033</v>
       </c>
       <c r="C41">
-        <v>0.001569134392740383</v>
+        <v>0.008404546037099024</v>
       </c>
       <c r="D41">
-        <v>-0.06782697486931137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05671994348517705</v>
+      </c>
+      <c r="E41">
+        <v>0.05269348709551659</v>
+      </c>
+      <c r="F41">
+        <v>-0.003859677041144604</v>
+      </c>
+      <c r="G41">
+        <v>-0.02239092426538064</v>
+      </c>
+      <c r="H41">
+        <v>-0.02229973992501643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02816094593703112</v>
+        <v>0.02318235917603492</v>
       </c>
       <c r="C43">
-        <v>-0.01046562914409466</v>
+        <v>0.01832449520025113</v>
       </c>
       <c r="D43">
-        <v>-0.1063454712242434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08558151610849135</v>
+      </c>
+      <c r="E43">
+        <v>0.02987943145041342</v>
+      </c>
+      <c r="F43">
+        <v>-0.004249385317716259</v>
+      </c>
+      <c r="G43">
+        <v>-0.02385834176193567</v>
+      </c>
+      <c r="H43">
+        <v>-0.04064727856659268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01374463205420921</v>
+        <v>0.01610552158854452</v>
       </c>
       <c r="C44">
-        <v>-0.0431149602940049</v>
+        <v>0.04219550926622147</v>
       </c>
       <c r="D44">
-        <v>-0.08090622500323671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1033233173870002</v>
+      </c>
+      <c r="E44">
+        <v>0.06215122805600752</v>
+      </c>
+      <c r="F44">
+        <v>-0.01350034946152182</v>
+      </c>
+      <c r="G44">
+        <v>-0.01625414319063033</v>
+      </c>
+      <c r="H44">
+        <v>-0.03626445432741563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01507872548083847</v>
+        <v>0.01302869461452808</v>
       </c>
       <c r="C46">
-        <v>-0.01960709113835281</v>
+        <v>0.02970134554930879</v>
       </c>
       <c r="D46">
-        <v>-0.0797569618772286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08659035463594594</v>
+      </c>
+      <c r="E46">
+        <v>0.03452862801588234</v>
+      </c>
+      <c r="F46">
+        <v>0.0140318636063137</v>
+      </c>
+      <c r="G46">
+        <v>0.000454601732751692</v>
+      </c>
+      <c r="H46">
+        <v>-0.05039134461666374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09362346811403598</v>
+        <v>0.08112511198735615</v>
       </c>
       <c r="C47">
-        <v>-0.07474425445606765</v>
+        <v>0.09114757390859783</v>
       </c>
       <c r="D47">
-        <v>-0.04599079671713512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03407048006370184</v>
+      </c>
+      <c r="E47">
+        <v>0.03599085004940896</v>
+      </c>
+      <c r="F47">
+        <v>-0.01830259628161211</v>
+      </c>
+      <c r="G47">
+        <v>0.02084867145591489</v>
+      </c>
+      <c r="H47">
+        <v>-0.06782781005062638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01360474376999855</v>
+        <v>0.01582681391587406</v>
       </c>
       <c r="C48">
-        <v>-0.01198160168135366</v>
+        <v>0.01905161111294145</v>
       </c>
       <c r="D48">
-        <v>-0.06446374795479624</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07382995439475307</v>
+      </c>
+      <c r="E48">
+        <v>0.04987810563617664</v>
+      </c>
+      <c r="F48">
+        <v>-0.002615875519928272</v>
+      </c>
+      <c r="G48">
+        <v>-0.0008404709049206495</v>
+      </c>
+      <c r="H48">
+        <v>-0.0168008087667165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05858415430793493</v>
+        <v>0.05134519250547511</v>
       </c>
       <c r="C50">
-        <v>-0.05397471009122035</v>
+        <v>0.06735242839489644</v>
       </c>
       <c r="D50">
-        <v>-0.06431213495798491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05574258827774962</v>
+      </c>
+      <c r="E50">
+        <v>0.04176245325328265</v>
+      </c>
+      <c r="F50">
+        <v>-0.03935842425654559</v>
+      </c>
+      <c r="G50">
+        <v>-0.0277007121367224</v>
+      </c>
+      <c r="H50">
+        <v>-0.02680574847098022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01004159303297641</v>
+        <v>0.01037166270370881</v>
       </c>
       <c r="C51">
-        <v>-0.01363213403423236</v>
+        <v>0.01936215671236876</v>
       </c>
       <c r="D51">
-        <v>-0.07784423739021749</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08972195649180773</v>
+      </c>
+      <c r="E51">
+        <v>0.0156207987875455</v>
+      </c>
+      <c r="F51">
+        <v>-0.004676203517259159</v>
+      </c>
+      <c r="G51">
+        <v>-0.01911942496123289</v>
+      </c>
+      <c r="H51">
+        <v>-0.00391677663961792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08887336273560678</v>
+        <v>0.08506201675621372</v>
       </c>
       <c r="C53">
-        <v>-0.08555093813797775</v>
+        <v>0.1015136495925183</v>
       </c>
       <c r="D53">
-        <v>-0.002121072817380863</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01468330533353082</v>
+      </c>
+      <c r="E53">
+        <v>0.1103259451306725</v>
+      </c>
+      <c r="F53">
+        <v>-0.04774988627616518</v>
+      </c>
+      <c r="G53">
+        <v>0.08062688385055058</v>
+      </c>
+      <c r="H53">
+        <v>-0.03014990228149881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02841797133421341</v>
+        <v>0.02507353363585123</v>
       </c>
       <c r="C54">
-        <v>-0.02583522725983323</v>
+        <v>0.03472455450149081</v>
       </c>
       <c r="D54">
-        <v>-0.09240595826780015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08897522932038765</v>
+      </c>
+      <c r="E54">
+        <v>0.03752004152889136</v>
+      </c>
+      <c r="F54">
+        <v>0.0097219814180992</v>
+      </c>
+      <c r="G54">
+        <v>-0.03589030108350123</v>
+      </c>
+      <c r="H54">
+        <v>-0.05491564757376333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09185071293341922</v>
+        <v>0.08336653969877146</v>
       </c>
       <c r="C55">
-        <v>-0.05969812118653837</v>
+        <v>0.0809185445745297</v>
       </c>
       <c r="D55">
-        <v>0.01529612919434989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.006755194373571947</v>
+      </c>
+      <c r="E55">
+        <v>0.05930457899668452</v>
+      </c>
+      <c r="F55">
+        <v>-0.04166781855024877</v>
+      </c>
+      <c r="G55">
+        <v>0.04209165101055157</v>
+      </c>
+      <c r="H55">
+        <v>-0.006888662263391749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.13879174072752</v>
+        <v>0.1274479379353317</v>
       </c>
       <c r="C56">
-        <v>-0.09785797362201183</v>
+        <v>0.1268753792115846</v>
       </c>
       <c r="D56">
-        <v>0.008798768831406695</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0113607899868772</v>
+      </c>
+      <c r="E56">
+        <v>0.06274831239387797</v>
+      </c>
+      <c r="F56">
+        <v>-0.02982064275479586</v>
+      </c>
+      <c r="G56">
+        <v>0.03566237927248309</v>
+      </c>
+      <c r="H56">
+        <v>-0.04392978582134849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01672825877367018</v>
+        <v>0.02509862087624363</v>
       </c>
       <c r="C58">
-        <v>0.01066107662992941</v>
+        <v>0.02622774858569437</v>
       </c>
       <c r="D58">
-        <v>-0.304290019060371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.356941787475587</v>
+      </c>
+      <c r="E58">
+        <v>0.1853866738625636</v>
+      </c>
+      <c r="F58">
+        <v>-0.1366137477054007</v>
+      </c>
+      <c r="G58">
+        <v>-0.1573005374801295</v>
+      </c>
+      <c r="H58">
+        <v>0.4045647930756789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1424200785620972</v>
+        <v>0.1805636185204487</v>
       </c>
       <c r="C59">
-        <v>0.1893388766923212</v>
+        <v>-0.1680728156544621</v>
       </c>
       <c r="D59">
-        <v>-0.03175038650432626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05215624729066375</v>
+      </c>
+      <c r="E59">
+        <v>0.01887350978993908</v>
+      </c>
+      <c r="F59">
+        <v>0.04283796208834807</v>
+      </c>
+      <c r="G59">
+        <v>0.001301404615406694</v>
+      </c>
+      <c r="H59">
+        <v>0.01266394368440423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2461707042503239</v>
+        <v>0.2280471301946666</v>
       </c>
       <c r="C60">
-        <v>-0.06277571527382503</v>
+        <v>0.1041357066130987</v>
       </c>
       <c r="D60">
-        <v>-0.2107495214814154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1211718760070097</v>
+      </c>
+      <c r="E60">
+        <v>-0.3591387824675177</v>
+      </c>
+      <c r="F60">
+        <v>-0.01740782485280789</v>
+      </c>
+      <c r="G60">
+        <v>0.0520868995260511</v>
+      </c>
+      <c r="H60">
+        <v>0.04961817997097467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04461410616311003</v>
+        <v>0.03950725857311617</v>
       </c>
       <c r="C61">
-        <v>-0.0491751727741699</v>
+        <v>0.06225793927388079</v>
       </c>
       <c r="D61">
-        <v>-0.0999571566445874</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09164277394482306</v>
+      </c>
+      <c r="E61">
+        <v>-0.001655640540866287</v>
+      </c>
+      <c r="F61">
+        <v>0.02006765621567631</v>
+      </c>
+      <c r="G61">
+        <v>-0.003544599666532576</v>
+      </c>
+      <c r="H61">
+        <v>-0.04430335490992909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01662216182487472</v>
+        <v>0.01473908051504694</v>
       </c>
       <c r="C63">
-        <v>-0.02095600240454129</v>
+        <v>0.03222331290391494</v>
       </c>
       <c r="D63">
-        <v>-0.0611831985192421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06786568499880138</v>
+      </c>
+      <c r="E63">
+        <v>0.02823583066191766</v>
+      </c>
+      <c r="F63">
+        <v>-0.01807367382501042</v>
+      </c>
+      <c r="G63">
+        <v>-0.00741319533284604</v>
+      </c>
+      <c r="H63">
+        <v>-0.000887542624558246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05761237761770868</v>
+        <v>0.05182316647840337</v>
       </c>
       <c r="C64">
-        <v>-0.06652431222831219</v>
+        <v>0.08232624745462661</v>
       </c>
       <c r="D64">
-        <v>-0.06135328996554271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05680611091983282</v>
+      </c>
+      <c r="E64">
+        <v>0.02145868443041119</v>
+      </c>
+      <c r="F64">
+        <v>0.01725490545534917</v>
+      </c>
+      <c r="G64">
+        <v>0.04658628864980285</v>
+      </c>
+      <c r="H64">
+        <v>-0.01950992316290422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0478713087876235</v>
+        <v>0.04445755826916869</v>
       </c>
       <c r="C65">
-        <v>-0.0103068691170685</v>
+        <v>0.02801450399616684</v>
       </c>
       <c r="D65">
-        <v>-0.1209403450391161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1204192575614862</v>
+      </c>
+      <c r="E65">
+        <v>0.002471885604764438</v>
+      </c>
+      <c r="F65">
+        <v>-0.01667558531495649</v>
+      </c>
+      <c r="G65">
+        <v>-0.0231998011616478</v>
+      </c>
+      <c r="H65">
+        <v>0.0323188213112183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04343443855649221</v>
+        <v>0.0391605013381383</v>
       </c>
       <c r="C66">
-        <v>-0.05410406629814352</v>
+        <v>0.07625518401460035</v>
       </c>
       <c r="D66">
-        <v>-0.1089945300124145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1298458293075292</v>
+      </c>
+      <c r="E66">
+        <v>0.009443044746359647</v>
+      </c>
+      <c r="F66">
+        <v>0.01476563707402873</v>
+      </c>
+      <c r="G66">
+        <v>-0.02043797782833414</v>
+      </c>
+      <c r="H66">
+        <v>-0.008389460836795476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03932742295261303</v>
+        <v>0.0372770417749283</v>
       </c>
       <c r="C67">
-        <v>-0.0196778973835424</v>
+        <v>0.02617352034295271</v>
       </c>
       <c r="D67">
-        <v>-0.02740502579168629</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02412824206717161</v>
+      </c>
+      <c r="E67">
+        <v>0.01246238334056999</v>
+      </c>
+      <c r="F67">
+        <v>0.005660493004550942</v>
+      </c>
+      <c r="G67">
+        <v>-0.03642408509994096</v>
+      </c>
+      <c r="H67">
+        <v>-0.01685215499784514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1642282647654283</v>
+        <v>0.1980638103705388</v>
       </c>
       <c r="C68">
-        <v>0.2306219578726685</v>
+        <v>-0.1946534093200916</v>
       </c>
       <c r="D68">
-        <v>0.01180006455381292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01555537194096984</v>
+      </c>
+      <c r="E68">
+        <v>0.04814623348033401</v>
+      </c>
+      <c r="F68">
+        <v>-0.03333743989197128</v>
+      </c>
+      <c r="G68">
+        <v>-0.005142131723907992</v>
+      </c>
+      <c r="H68">
+        <v>0.01615935670182982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08444324445514199</v>
+        <v>0.07216436929170411</v>
       </c>
       <c r="C69">
-        <v>-0.08640641083237235</v>
+        <v>0.09744673389970779</v>
       </c>
       <c r="D69">
-        <v>-0.07057903317846356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04983824484676191</v>
+      </c>
+      <c r="E69">
+        <v>0.02194066199991974</v>
+      </c>
+      <c r="F69">
+        <v>-0.006823784252359676</v>
+      </c>
+      <c r="G69">
+        <v>0.01913613775056341</v>
+      </c>
+      <c r="H69">
+        <v>-0.05827541394172749</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1439332392939044</v>
+        <v>0.1855030202080639</v>
       </c>
       <c r="C71">
-        <v>0.233762554949287</v>
+        <v>-0.2068008764555298</v>
       </c>
       <c r="D71">
-        <v>-0.01952894081811813</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04130615347040348</v>
+      </c>
+      <c r="E71">
+        <v>0.05237840504352706</v>
+      </c>
+      <c r="F71">
+        <v>-0.03371915081911432</v>
+      </c>
+      <c r="G71">
+        <v>0.009136960176286273</v>
+      </c>
+      <c r="H71">
+        <v>-0.04314029904717816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0984328194628008</v>
+        <v>0.09800116265046008</v>
       </c>
       <c r="C72">
-        <v>-0.04252206300074813</v>
+        <v>0.07393139474070271</v>
       </c>
       <c r="D72">
-        <v>-0.08745146146338176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09628158586199992</v>
+      </c>
+      <c r="E72">
+        <v>-0.03586970065104188</v>
+      </c>
+      <c r="F72">
+        <v>-0.03563666043957854</v>
+      </c>
+      <c r="G72">
+        <v>0.0309301412762541</v>
+      </c>
+      <c r="H72">
+        <v>0.007092902805316099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2602851149024369</v>
+        <v>0.2384104556169225</v>
       </c>
       <c r="C73">
-        <v>-0.02618969128875995</v>
+        <v>0.09004246406565822</v>
       </c>
       <c r="D73">
-        <v>-0.3224776844882497</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1624045339421208</v>
+      </c>
+      <c r="E73">
+        <v>-0.6639877927597171</v>
+      </c>
+      <c r="F73">
+        <v>0.007579042638039921</v>
+      </c>
+      <c r="G73">
+        <v>0.0546768366666876</v>
+      </c>
+      <c r="H73">
+        <v>0.09592570011949218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1081432919517728</v>
+        <v>0.09676692703736206</v>
       </c>
       <c r="C74">
-        <v>-0.06955114346660236</v>
+        <v>0.09195835039000699</v>
       </c>
       <c r="D74">
-        <v>-0.005583672702503646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.002784576581627049</v>
+      </c>
+      <c r="E74">
+        <v>0.07863642132166006</v>
+      </c>
+      <c r="F74">
+        <v>-0.06706809967567677</v>
+      </c>
+      <c r="G74">
+        <v>0.06115607148714972</v>
+      </c>
+      <c r="H74">
+        <v>0.006373859576246672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2486965983099089</v>
+        <v>0.2263655005763159</v>
       </c>
       <c r="C75">
-        <v>-0.1279721405337521</v>
+        <v>0.1671059070316662</v>
       </c>
       <c r="D75">
-        <v>0.07554974636815268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09956541954761321</v>
+      </c>
+      <c r="E75">
+        <v>0.1021010992381215</v>
+      </c>
+      <c r="F75">
+        <v>0.0103453646979269</v>
+      </c>
+      <c r="G75">
+        <v>0.04946230876570284</v>
+      </c>
+      <c r="H75">
+        <v>-0.002978816578206574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.140220471031563</v>
+        <v>0.1247603852483914</v>
       </c>
       <c r="C76">
-        <v>-0.08976912274854421</v>
+        <v>0.1148826854186537</v>
       </c>
       <c r="D76">
-        <v>0.01527743986144339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01164432690768521</v>
+      </c>
+      <c r="E76">
+        <v>0.1185650779506687</v>
+      </c>
+      <c r="F76">
+        <v>-0.01994858745057802</v>
+      </c>
+      <c r="G76">
+        <v>0.03705754237043762</v>
+      </c>
+      <c r="H76">
+        <v>-0.02559170014962429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05484230251861125</v>
+        <v>0.05917883923728366</v>
       </c>
       <c r="C77">
-        <v>-0.0680137613039785</v>
+        <v>0.07072239246781273</v>
       </c>
       <c r="D77">
-        <v>-0.03459248155812325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1232015979524287</v>
+      </c>
+      <c r="E77">
+        <v>0.2342955745293675</v>
+      </c>
+      <c r="F77">
+        <v>0.2743188821164882</v>
+      </c>
+      <c r="G77">
+        <v>-0.2668422016159959</v>
+      </c>
+      <c r="H77">
+        <v>-0.1784283997292208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03997111616322682</v>
+        <v>0.04278248977849923</v>
       </c>
       <c r="C78">
-        <v>-0.05498771698849266</v>
+        <v>0.06807196462220905</v>
       </c>
       <c r="D78">
-        <v>-0.1232836795639464</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1360417213087793</v>
+      </c>
+      <c r="E78">
+        <v>0.01211310385842946</v>
+      </c>
+      <c r="F78">
+        <v>-0.006295641272862322</v>
+      </c>
+      <c r="G78">
+        <v>0.006890148456817114</v>
+      </c>
+      <c r="H78">
+        <v>-0.02658624369535706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02672623934072101</v>
+        <v>0.04608312955086299</v>
       </c>
       <c r="C79">
-        <v>-0.08004942420181528</v>
+        <v>0.09507865853114193</v>
       </c>
       <c r="D79">
-        <v>0.06902808593650282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02046563367450729</v>
+      </c>
+      <c r="E79">
+        <v>0.2233827127665164</v>
+      </c>
+      <c r="F79">
+        <v>-0.1466182129232826</v>
+      </c>
+      <c r="G79">
+        <v>0.7814835817171092</v>
+      </c>
+      <c r="H79">
+        <v>0.1961686599671564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0316708854237942</v>
+        <v>0.02459272354399047</v>
       </c>
       <c r="C80">
-        <v>-0.03615244423306997</v>
+        <v>0.04596849153331407</v>
       </c>
       <c r="D80">
-        <v>-0.01286624087469209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0236782499063685</v>
+      </c>
+      <c r="E80">
+        <v>0.02356548381746596</v>
+      </c>
+      <c r="F80">
+        <v>-0.00393666584759171</v>
+      </c>
+      <c r="G80">
+        <v>-0.03256218422316046</v>
+      </c>
+      <c r="H80">
+        <v>0.03728007069556218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1434783044988915</v>
+        <v>0.1255677655809349</v>
       </c>
       <c r="C81">
-        <v>-0.1002166926772109</v>
+        <v>0.1210347061992955</v>
       </c>
       <c r="D81">
-        <v>0.0601164142028341</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07090068704471572</v>
+      </c>
+      <c r="E81">
+        <v>0.1134625717232841</v>
+      </c>
+      <c r="F81">
+        <v>-0.0231934234018375</v>
+      </c>
+      <c r="G81">
+        <v>0.03762368249544138</v>
+      </c>
+      <c r="H81">
+        <v>-0.01938815606406786</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3123943756501415</v>
+        <v>0.2541356311840297</v>
       </c>
       <c r="C82">
-        <v>-0.2614159584584294</v>
+        <v>0.2659139811332542</v>
       </c>
       <c r="D82">
-        <v>0.2304551688456588</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2419537711204165</v>
+      </c>
+      <c r="E82">
+        <v>-0.02170407576713998</v>
+      </c>
+      <c r="F82">
+        <v>-0.0456635091653401</v>
+      </c>
+      <c r="G82">
+        <v>-0.03669830830648275</v>
+      </c>
+      <c r="H82">
+        <v>-0.5904082680202437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0288636402696265</v>
+        <v>0.02031371969885539</v>
       </c>
       <c r="C83">
-        <v>-0.04981766923196414</v>
+        <v>0.05209744073630749</v>
       </c>
       <c r="D83">
-        <v>-0.04325782809001937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04430324613982858</v>
+      </c>
+      <c r="E83">
+        <v>0.01734158434768236</v>
+      </c>
+      <c r="F83">
+        <v>0.0538234901494094</v>
+      </c>
+      <c r="G83">
+        <v>-0.05088231424999978</v>
+      </c>
+      <c r="H83">
+        <v>-0.05651952397049093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0008038693714185532</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004385934950651652</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01883246367794048</v>
+      </c>
+      <c r="E84">
+        <v>0.0194111830434995</v>
+      </c>
+      <c r="F84">
+        <v>-0.01011743906482173</v>
+      </c>
+      <c r="G84">
+        <v>-0.005645294082433058</v>
+      </c>
+      <c r="H84">
+        <v>0.01187016442825925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1776828191206285</v>
+        <v>0.1549162417778105</v>
       </c>
       <c r="C85">
-        <v>-0.1011665249573149</v>
+        <v>0.1382278742081175</v>
       </c>
       <c r="D85">
-        <v>0.03364346550531928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05947676513415454</v>
+      </c>
+      <c r="E85">
+        <v>0.05127342311556464</v>
+      </c>
+      <c r="F85">
+        <v>-0.02727466154750965</v>
+      </c>
+      <c r="G85">
+        <v>0.1030275318763842</v>
+      </c>
+      <c r="H85">
+        <v>0.06236660692238744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01344410860711234</v>
+        <v>0.01881053247505779</v>
       </c>
       <c r="C86">
-        <v>-0.03300444658178274</v>
+        <v>0.0241255220328789</v>
       </c>
       <c r="D86">
-        <v>-0.1276863590590701</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1195958536589333</v>
+      </c>
+      <c r="E86">
+        <v>0.004574386601750305</v>
+      </c>
+      <c r="F86">
+        <v>0.02111603287848036</v>
+      </c>
+      <c r="G86">
+        <v>-0.02188400897129794</v>
+      </c>
+      <c r="H86">
+        <v>-0.1228052845131607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0281474990773607</v>
+        <v>0.03592419497632531</v>
       </c>
       <c r="C87">
-        <v>-0.008483034069472902</v>
+        <v>0.02531880721960512</v>
       </c>
       <c r="D87">
-        <v>-0.09783607548723645</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1385955742339887</v>
+      </c>
+      <c r="E87">
+        <v>0.07550316674952082</v>
+      </c>
+      <c r="F87">
+        <v>0.004440237432993219</v>
+      </c>
+      <c r="G87">
+        <v>-0.02139734763554228</v>
+      </c>
+      <c r="H87">
+        <v>-0.0005977032149897276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07587707376289447</v>
+        <v>0.06828033540195436</v>
       </c>
       <c r="C88">
-        <v>-0.0353932385993227</v>
+        <v>0.05394717520949296</v>
       </c>
       <c r="D88">
-        <v>-0.05306482093351728</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02955957732042923</v>
+      </c>
+      <c r="E88">
+        <v>-0.001496150587732772</v>
+      </c>
+      <c r="F88">
+        <v>-0.02007229462237875</v>
+      </c>
+      <c r="G88">
+        <v>0.008602305324164113</v>
+      </c>
+      <c r="H88">
+        <v>-0.01704634485702638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2242659778472956</v>
+        <v>0.2848339161981289</v>
       </c>
       <c r="C89">
-        <v>0.4024970864365981</v>
+        <v>-0.3512588502089458</v>
       </c>
       <c r="D89">
-        <v>0.04583009405230418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0007089528768327737</v>
+      </c>
+      <c r="E89">
+        <v>0.04423553110671141</v>
+      </c>
+      <c r="F89">
+        <v>0.03683726283596403</v>
+      </c>
+      <c r="G89">
+        <v>0.03771695113009988</v>
+      </c>
+      <c r="H89">
+        <v>-0.03089986426460205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1987781076181606</v>
+        <v>0.2421158945429494</v>
       </c>
       <c r="C90">
-        <v>0.2966403343723049</v>
+        <v>-0.2488062818512898</v>
       </c>
       <c r="D90">
-        <v>0.008761409813235784</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01941243317300335</v>
+      </c>
+      <c r="E90">
+        <v>0.05189832196896948</v>
+      </c>
+      <c r="F90">
+        <v>-0.002181469557378212</v>
+      </c>
+      <c r="G90">
+        <v>-0.06323641795688606</v>
+      </c>
+      <c r="H90">
+        <v>-0.01978094823963895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1839635848251373</v>
+        <v>0.1565603276140931</v>
       </c>
       <c r="C91">
-        <v>-0.1428003467915182</v>
+        <v>0.1586305192706963</v>
       </c>
       <c r="D91">
-        <v>0.08301429982528674</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08498123472537078</v>
+      </c>
+      <c r="E91">
+        <v>0.1086724102157227</v>
+      </c>
+      <c r="F91">
+        <v>-0.02179682115479053</v>
+      </c>
+      <c r="G91">
+        <v>0.09388163941021285</v>
+      </c>
+      <c r="H91">
+        <v>0.01529035750109601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1748331022919252</v>
+        <v>0.2274527303433496</v>
       </c>
       <c r="C92">
-        <v>0.2918269454929406</v>
+        <v>-0.2702804695261813</v>
       </c>
       <c r="D92">
-        <v>-0.006036558975836132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0289120303146333</v>
+      </c>
+      <c r="E92">
+        <v>0.09366907992138869</v>
+      </c>
+      <c r="F92">
+        <v>0.001784244835726338</v>
+      </c>
+      <c r="G92">
+        <v>-0.02875682501958772</v>
+      </c>
+      <c r="H92">
+        <v>-0.0485775595224214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2227423750067735</v>
+        <v>0.2638208884601072</v>
       </c>
       <c r="C93">
-        <v>0.3108853283433828</v>
+        <v>-0.261363037929335</v>
       </c>
       <c r="D93">
-        <v>-0.003627259357095824</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003512592125976262</v>
+      </c>
+      <c r="E93">
+        <v>0.004899668210815652</v>
+      </c>
+      <c r="F93">
+        <v>-0.01540415774846657</v>
+      </c>
+      <c r="G93">
+        <v>0.009474542451700289</v>
+      </c>
+      <c r="H93">
+        <v>0.02203571675395058</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3941263778607801</v>
+        <v>0.3352035642853148</v>
       </c>
       <c r="C94">
-        <v>-0.2220958277250819</v>
+        <v>0.2676464979139275</v>
       </c>
       <c r="D94">
-        <v>0.4383985685565958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.42280933353325</v>
+      </c>
+      <c r="E94">
+        <v>0.08984562139074292</v>
+      </c>
+      <c r="F94">
+        <v>-0.006453247290683882</v>
+      </c>
+      <c r="G94">
+        <v>-0.3845693505239632</v>
+      </c>
+      <c r="H94">
+        <v>0.5181186313166311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07565715932688474</v>
+        <v>0.06663455212600991</v>
       </c>
       <c r="C95">
-        <v>-0.06168459175790029</v>
+        <v>0.06681961697245176</v>
       </c>
       <c r="D95">
-        <v>-0.09604637404846975</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07183644330146113</v>
+      </c>
+      <c r="E95">
+        <v>0.03126709686648695</v>
+      </c>
+      <c r="F95">
+        <v>0.9054731980202766</v>
+      </c>
+      <c r="G95">
+        <v>0.1751849714026972</v>
+      </c>
+      <c r="H95">
+        <v>0.1327318273583482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1694602874449559</v>
+        <v>0.1620548097979647</v>
       </c>
       <c r="C98">
-        <v>-0.02430600605145028</v>
+        <v>0.06684932278645783</v>
       </c>
       <c r="D98">
-        <v>-0.178170697001462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1235733804773023</v>
+      </c>
+      <c r="E98">
+        <v>-0.3155011726352831</v>
+      </c>
+      <c r="F98">
+        <v>-0.03981505786911187</v>
+      </c>
+      <c r="G98">
+        <v>0.05683853131209793</v>
+      </c>
+      <c r="H98">
+        <v>0.003236063928246877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003543352407664716</v>
+        <v>0.004505113826013748</v>
       </c>
       <c r="C101">
-        <v>-0.01651516960701947</v>
+        <v>0.02180845879225812</v>
       </c>
       <c r="D101">
-        <v>-0.07088938050343835</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08925780154450955</v>
+      </c>
+      <c r="E101">
+        <v>0.03142698312260622</v>
+      </c>
+      <c r="F101">
+        <v>-0.01177659963723583</v>
+      </c>
+      <c r="G101">
+        <v>-0.004085882415595577</v>
+      </c>
+      <c r="H101">
+        <v>-0.0317419683774872</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.127548889624643</v>
+        <v>0.1042306195597154</v>
       </c>
       <c r="C102">
-        <v>-0.115095433573615</v>
+        <v>0.1210983642481357</v>
       </c>
       <c r="D102">
-        <v>0.04749677085543218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06430167197424246</v>
+      </c>
+      <c r="E102">
+        <v>0.02473036714312919</v>
+      </c>
+      <c r="F102">
+        <v>0.02493005662914679</v>
+      </c>
+      <c r="G102">
+        <v>0.02029881705305793</v>
+      </c>
+      <c r="H102">
+        <v>-0.09061490035171083</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
